--- a/results/MVSE/dblp/MVSE_dblp<l03><WH>91.65.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l03><WH>91.65.xlsx
@@ -586,7 +586,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -654,7 +656,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_22_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -722,7 +726,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -767,7 +773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
@@ -835,7 +843,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
@@ -903,7 +913,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
@@ -971,7 +983,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
@@ -1062,7 +1076,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_08_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1130,7 +1146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_36_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1175,7 +1193,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
       <c r="L11" t="n">
         <v>2</v>
       </c>
@@ -1243,7 +1263,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
@@ -1334,7 +1356,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_38_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1402,7 +1426,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_42_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1470,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_18_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1538,7 +1566,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_30_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1606,7 +1636,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_42_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1674,7 +1706,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_12_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1742,7 +1776,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_11_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1810,7 +1846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_26_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1878,7 +1916,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_44_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1946,7 +1986,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1991,7 +2033,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
@@ -2082,7 +2126,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_01_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2150,7 +2196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_08_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2195,7 +2243,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
@@ -2286,7 +2336,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_55_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
